--- a/example.xlsx
+++ b/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tstephan\Documents\GitHub\Bulk_to_therin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACB0EF8-EFAC-4720-9C37-41C4C0FD0E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78332A51-FAE1-4467-A642-A7C115013965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{01FF6B08-04A0-4F62-9453-0F4DF675DC1F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>SAMPLE</t>
   </si>
@@ -174,6 +174,12 @@
   </si>
   <si>
     <t>22-ER-NP-01</t>
+  </si>
+  <si>
+    <t>Pattison2015</t>
+  </si>
+  <si>
+    <t>FeO</t>
   </si>
 </sst>
 </file>
@@ -209,8 +215,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,15 +552,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5EFF5DF-D397-42D8-9243-29F0C46C84B5}">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="E3" sqref="E3:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -567,1439 +574,1579 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="1">
+        <v>59.23</v>
+      </c>
+      <c r="C2" s="1">
+        <v>20.97</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>7.05</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3.19</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1.48</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2.94</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="L2" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>97.94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>66.900000000000006</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>15.7</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>3.24</v>
       </c>
-      <c r="E2">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>2.83</v>
       </c>
-      <c r="F2">
+      <c r="G3">
         <v>1.88</v>
       </c>
-      <c r="G2">
+      <c r="H3">
         <v>4.47</v>
       </c>
-      <c r="H2">
+      <c r="I3">
         <v>2.4700000000000002</v>
       </c>
-      <c r="I2">
+      <c r="J3">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="J2">
+      <c r="K3">
         <v>0.32</v>
       </c>
-      <c r="K2">
+      <c r="L3">
         <v>0.03</v>
       </c>
-      <c r="L2">
+      <c r="M3">
         <v>0.11</v>
-      </c>
-      <c r="M2">
-        <v>0.04</v>
-      </c>
-      <c r="N2">
-        <v>0.04</v>
-      </c>
-      <c r="O2">
-        <v>3.23</v>
-      </c>
-      <c r="P2">
-        <v>101.27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3">
-        <v>60.9</v>
-      </c>
-      <c r="C3">
-        <v>15.05</v>
-      </c>
-      <c r="D3">
-        <v>6.9</v>
-      </c>
-      <c r="E3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F3">
-        <v>3.74</v>
-      </c>
-      <c r="G3">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="H3">
-        <v>2.25</v>
-      </c>
-      <c r="I3">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="J3">
-        <v>0.52</v>
-      </c>
-      <c r="K3">
-        <v>0.03</v>
-      </c>
-      <c r="L3">
-        <v>0.1</v>
-      </c>
-      <c r="M3">
-        <v>0.01</v>
       </c>
       <c r="N3">
         <v>0.04</v>
       </c>
       <c r="O3">
+        <v>0.04</v>
+      </c>
+      <c r="P3">
+        <v>3.23</v>
+      </c>
+      <c r="Q3">
+        <v>101.27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>60.9</v>
+      </c>
+      <c r="C4">
+        <v>15.05</v>
+      </c>
+      <c r="D4">
+        <v>6.9</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G4">
+        <v>3.74</v>
+      </c>
+      <c r="H4">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I4">
+        <v>2.25</v>
+      </c>
+      <c r="J4">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="K4">
+        <v>0.52</v>
+      </c>
+      <c r="L4">
+        <v>0.03</v>
+      </c>
+      <c r="M4">
+        <v>0.1</v>
+      </c>
+      <c r="N4">
+        <v>0.01</v>
+      </c>
+      <c r="O4">
+        <v>0.04</v>
+      </c>
+      <c r="P4">
         <v>4.1900000000000004</v>
       </c>
-      <c r="P3">
+      <c r="Q4">
         <v>98.18</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>67.7</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>15.4</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>2.16</v>
       </c>
-      <c r="E4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.88</v>
       </c>
-      <c r="F4">
+      <c r="G5">
         <v>0.36</v>
       </c>
-      <c r="G4">
+      <c r="H5">
         <v>5.3</v>
       </c>
-      <c r="H4">
+      <c r="I5">
         <v>5.57</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J5" t="s">
         <v>19</v>
       </c>
-      <c r="J4">
+      <c r="K5">
         <v>0.23</v>
       </c>
-      <c r="K4">
+      <c r="L5">
         <v>0.04</v>
       </c>
-      <c r="L4">
+      <c r="M5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M4">
+      <c r="N5">
         <v>0.08</v>
       </c>
-      <c r="N4">
+      <c r="O5">
         <v>0.12</v>
       </c>
-      <c r="O4">
+      <c r="P5">
         <v>0.41</v>
       </c>
-      <c r="P4">
+      <c r="Q5">
         <v>98.32</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>64.900000000000006</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>16</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>3.55</v>
       </c>
-      <c r="E5">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2.78</v>
       </c>
-      <c r="F5">
+      <c r="G6">
         <v>1.28</v>
       </c>
-      <c r="G5">
+      <c r="H6">
         <v>5.26</v>
       </c>
-      <c r="H5">
+      <c r="I6">
         <v>3.01</v>
       </c>
-      <c r="I5">
+      <c r="J6">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J5">
+      <c r="K6">
         <v>0.53</v>
       </c>
-      <c r="K5">
+      <c r="L6">
         <v>0.05</v>
       </c>
-      <c r="L5">
+      <c r="M6">
         <v>0.21</v>
       </c>
-      <c r="M5">
+      <c r="N6">
         <v>0.12</v>
       </c>
-      <c r="N5">
+      <c r="O6">
         <v>0.16</v>
       </c>
-      <c r="O5">
+      <c r="P6">
         <v>0.87</v>
       </c>
-      <c r="P5">
+      <c r="Q6">
         <v>98.72</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>58.9</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>15.8</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>6.86</v>
       </c>
-      <c r="E6">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>2.12</v>
       </c>
-      <c r="F6">
+      <c r="G7">
         <v>4.95</v>
       </c>
-      <c r="G6">
+      <c r="H7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="H6">
+      <c r="I7">
         <v>1.36</v>
       </c>
-      <c r="I6">
+      <c r="J7">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="J6">
+      <c r="K7">
         <v>0.56999999999999995</v>
       </c>
-      <c r="K6">
+      <c r="L7">
         <v>0.1</v>
       </c>
-      <c r="L6">
+      <c r="M7">
         <v>0.16</v>
-      </c>
-      <c r="M6">
-        <v>0.03</v>
-      </c>
-      <c r="N6">
-        <v>0.05</v>
-      </c>
-      <c r="O6">
-        <v>4</v>
-      </c>
-      <c r="P6">
-        <v>100.02</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7">
-        <v>68.400000000000006</v>
-      </c>
-      <c r="C7">
-        <v>14.35</v>
-      </c>
-      <c r="D7">
-        <v>2.71</v>
-      </c>
-      <c r="E7">
-        <v>2.21</v>
-      </c>
-      <c r="F7">
-        <v>1.52</v>
-      </c>
-      <c r="G7">
-        <v>4.62</v>
-      </c>
-      <c r="H7">
-        <v>1.32</v>
-      </c>
-      <c r="I7">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J7">
-        <v>0.2</v>
-      </c>
-      <c r="K7">
-        <v>0.04</v>
-      </c>
-      <c r="L7">
-        <v>0.05</v>
-      </c>
-      <c r="M7">
-        <v>0.04</v>
       </c>
       <c r="N7">
         <v>0.03</v>
       </c>
       <c r="O7">
-        <v>2.78</v>
+        <v>0.05</v>
       </c>
       <c r="P7">
-        <v>98.27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="Q7">
+        <v>100.02</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8">
-        <v>69.099999999999994</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="C8">
-        <v>14.65</v>
+        <v>14.35</v>
       </c>
       <c r="D8">
-        <v>2.73</v>
+        <v>2.71</v>
       </c>
       <c r="E8">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1.1599999999999999</v>
+        <v>2.21</v>
       </c>
       <c r="G8">
-        <v>4.41</v>
+        <v>1.52</v>
       </c>
       <c r="H8">
-        <v>2.25</v>
+        <v>4.62</v>
       </c>
       <c r="I8">
-        <v>5.0000000000000001E-3</v>
+        <v>1.32</v>
       </c>
       <c r="J8">
-        <v>0.31</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="K8">
-        <v>0.06</v>
+        <v>0.2</v>
       </c>
       <c r="L8">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="M8">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="N8">
         <v>0.04</v>
       </c>
       <c r="O8">
-        <v>2.15</v>
+        <v>0.03</v>
       </c>
       <c r="P8">
-        <v>98.21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2.78</v>
+      </c>
+      <c r="Q8">
+        <v>98.27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9">
-        <v>46.9</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="C9">
-        <v>18.399999999999999</v>
+        <v>14.65</v>
       </c>
       <c r="D9">
-        <v>10.3</v>
+        <v>2.73</v>
       </c>
       <c r="E9">
-        <v>9.27</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>9.7899999999999991</v>
+        <v>1.26</v>
       </c>
       <c r="G9">
-        <v>2.04</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="H9">
-        <v>1.34</v>
+        <v>4.41</v>
       </c>
       <c r="I9">
-        <v>9.7000000000000003E-2</v>
+        <v>2.25</v>
       </c>
       <c r="J9">
-        <v>0.56000000000000005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="K9">
-        <v>0.15</v>
+        <v>0.31</v>
       </c>
       <c r="L9">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="M9">
-        <v>0.02</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="N9">
         <v>0.01</v>
       </c>
       <c r="O9">
-        <v>2.91</v>
+        <v>0.04</v>
       </c>
       <c r="P9">
-        <v>101.84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2.15</v>
+      </c>
+      <c r="Q9">
+        <v>98.21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10">
-        <v>75.900000000000006</v>
+        <v>46.9</v>
       </c>
       <c r="C10">
-        <v>12.75</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>10.3</v>
       </c>
       <c r="E10">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.86</v>
+        <v>9.27</v>
       </c>
       <c r="G10">
-        <v>2.44</v>
+        <v>9.7899999999999991</v>
       </c>
       <c r="H10">
-        <v>4.12</v>
-      </c>
-      <c r="I10" t="s">
-        <v>19</v>
+        <v>2.04</v>
+      </c>
+      <c r="I10">
+        <v>1.34</v>
       </c>
       <c r="J10">
-        <v>0.04</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="K10">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L10">
+        <v>0.15</v>
+      </c>
+      <c r="M10">
         <v>0.05</v>
-      </c>
-      <c r="L10">
-        <v>0.01</v>
-      </c>
-      <c r="M10" t="s">
-        <v>26</v>
       </c>
       <c r="N10">
         <v>0.02</v>
       </c>
       <c r="O10">
+        <v>0.01</v>
+      </c>
+      <c r="P10">
+        <v>2.91</v>
+      </c>
+      <c r="Q10">
+        <v>101.84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="C11">
+        <v>12.75</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1.22</v>
+      </c>
+      <c r="G11">
+        <v>0.86</v>
+      </c>
+      <c r="H11">
+        <v>2.44</v>
+      </c>
+      <c r="I11">
+        <v>4.12</v>
+      </c>
+      <c r="J11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11">
+        <v>0.04</v>
+      </c>
+      <c r="L11">
+        <v>0.05</v>
+      </c>
+      <c r="M11">
+        <v>0.01</v>
+      </c>
+      <c r="N11" t="s">
+        <v>26</v>
+      </c>
+      <c r="O11">
+        <v>0.02</v>
+      </c>
+      <c r="P11">
         <v>2.14</v>
       </c>
-      <c r="P10">
+      <c r="Q11">
         <v>100.55</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>27</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>58.9</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>16</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>5.26</v>
       </c>
-      <c r="E11">
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>4.24</v>
       </c>
-      <c r="F11">
+      <c r="G12">
         <v>2.99</v>
       </c>
-      <c r="G11">
+      <c r="H12">
         <v>5.7</v>
       </c>
-      <c r="H11">
+      <c r="I12">
         <v>0.73</v>
       </c>
-      <c r="I11">
+      <c r="J12">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="J11">
+      <c r="K12">
         <v>0.78</v>
-      </c>
-      <c r="K11">
-        <v>0.06</v>
-      </c>
-      <c r="L11">
-        <v>0.4</v>
-      </c>
-      <c r="M11">
-        <v>0.04</v>
-      </c>
-      <c r="N11">
-        <v>0.05</v>
-      </c>
-      <c r="O11">
-        <v>5</v>
-      </c>
-      <c r="P11">
-        <v>100.16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12">
-        <v>70.599999999999994</v>
-      </c>
-      <c r="C12">
-        <v>14.15</v>
-      </c>
-      <c r="D12">
-        <v>2.69</v>
-      </c>
-      <c r="E12">
-        <v>3.13</v>
-      </c>
-      <c r="F12">
-        <v>1.24</v>
-      </c>
-      <c r="G12">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="H12">
-        <v>1.41</v>
-      </c>
-      <c r="I12">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J12">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="K12">
-        <v>0.04</v>
       </c>
       <c r="L12">
         <v>0.06</v>
       </c>
       <c r="M12">
+        <v>0.4</v>
+      </c>
+      <c r="N12">
+        <v>0.04</v>
+      </c>
+      <c r="O12">
+        <v>0.05</v>
+      </c>
+      <c r="P12">
+        <v>5</v>
+      </c>
+      <c r="Q12">
+        <v>100.16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="C13">
+        <v>14.15</v>
+      </c>
+      <c r="D13">
+        <v>2.69</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>3.13</v>
+      </c>
+      <c r="G13">
+        <v>1.24</v>
+      </c>
+      <c r="H13">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="I13">
+        <v>1.41</v>
+      </c>
+      <c r="J13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K13">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L13">
+        <v>0.04</v>
+      </c>
+      <c r="M13">
+        <v>0.06</v>
+      </c>
+      <c r="N13">
         <v>0.02</v>
       </c>
-      <c r="N12">
+      <c r="O13">
         <v>0.03</v>
       </c>
-      <c r="O12">
+      <c r="P13">
         <v>3.86</v>
       </c>
-      <c r="P12">
+      <c r="Q13">
         <v>101.58</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>29</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>49.5</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>12.55</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>16.55</v>
       </c>
-      <c r="E13">
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
         <v>9.69</v>
       </c>
-      <c r="F13">
+      <c r="G14">
         <v>5.38</v>
       </c>
-      <c r="G13">
+      <c r="H14">
         <v>1.62</v>
       </c>
-      <c r="H13">
+      <c r="I14">
         <v>0.16</v>
       </c>
-      <c r="I13">
+      <c r="J14">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J13">
+      <c r="K14">
         <v>1.4</v>
       </c>
-      <c r="K13">
+      <c r="L14">
         <v>0.22</v>
       </c>
-      <c r="L13">
+      <c r="M14">
         <v>0.11</v>
-      </c>
-      <c r="M13">
-        <v>0.01</v>
-      </c>
-      <c r="N13" t="s">
-        <v>26</v>
-      </c>
-      <c r="O13">
-        <v>1.92</v>
-      </c>
-      <c r="P13">
-        <v>99.11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14">
-        <v>76.400000000000006</v>
-      </c>
-      <c r="C14">
-        <v>12.2</v>
-      </c>
-      <c r="D14">
-        <v>0.82</v>
-      </c>
-      <c r="E14">
-        <v>0.78</v>
-      </c>
-      <c r="F14">
-        <v>0.89</v>
-      </c>
-      <c r="G14">
-        <v>1.68</v>
-      </c>
-      <c r="H14">
-        <v>4.34</v>
-      </c>
-      <c r="I14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14">
-        <v>0.04</v>
-      </c>
-      <c r="K14">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L14">
-        <v>0.01</v>
-      </c>
-      <c r="M14" t="s">
-        <v>26</v>
       </c>
       <c r="N14">
         <v>0.01</v>
       </c>
-      <c r="O14">
+      <c r="O14" t="s">
+        <v>26</v>
+      </c>
+      <c r="P14">
+        <v>1.92</v>
+      </c>
+      <c r="Q14">
+        <v>99.11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="C15">
+        <v>12.2</v>
+      </c>
+      <c r="D15">
+        <v>0.82</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0.78</v>
+      </c>
+      <c r="G15">
+        <v>0.89</v>
+      </c>
+      <c r="H15">
+        <v>1.68</v>
+      </c>
+      <c r="I15">
+        <v>4.34</v>
+      </c>
+      <c r="J15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15">
+        <v>0.04</v>
+      </c>
+      <c r="L15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M15">
+        <v>0.01</v>
+      </c>
+      <c r="N15" t="s">
+        <v>26</v>
+      </c>
+      <c r="O15">
+        <v>0.01</v>
+      </c>
+      <c r="P15">
         <v>1.8</v>
       </c>
-      <c r="P14">
+      <c r="Q15">
         <v>99.04</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>31</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>60.3</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>15.55</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>5.03</v>
       </c>
-      <c r="E15">
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
         <v>4.0599999999999996</v>
       </c>
-      <c r="F15">
+      <c r="G16">
         <v>3.15</v>
       </c>
-      <c r="G15">
+      <c r="H16">
         <v>5.62</v>
       </c>
-      <c r="H15">
+      <c r="I16">
         <v>5.23</v>
       </c>
-      <c r="I15">
+      <c r="J16">
         <v>0.02</v>
       </c>
-      <c r="J15">
+      <c r="K16">
         <v>0.52</v>
       </c>
-      <c r="K15">
+      <c r="L16">
         <v>0.09</v>
       </c>
-      <c r="L15">
+      <c r="M16">
         <v>0.4</v>
       </c>
-      <c r="M15">
+      <c r="N16">
         <v>0.24</v>
       </c>
-      <c r="N15">
+      <c r="O16">
         <v>0.21</v>
       </c>
-      <c r="O15">
+      <c r="P16">
         <v>0.41</v>
       </c>
-      <c r="P15">
+      <c r="Q16">
         <v>100.83</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>32</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>53.5</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>15.1</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>7.79</v>
       </c>
-      <c r="E16">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
         <v>7.54</v>
       </c>
-      <c r="F16">
+      <c r="G17">
         <v>5.7</v>
       </c>
-      <c r="G16">
+      <c r="H17">
         <v>5.44</v>
       </c>
-      <c r="H16">
+      <c r="I17">
         <v>0.75</v>
       </c>
-      <c r="I16">
+      <c r="J17">
         <v>2.4E-2</v>
       </c>
-      <c r="J16">
+      <c r="K17">
         <v>0.83</v>
       </c>
-      <c r="K16">
+      <c r="L17">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L16">
+      <c r="M17">
         <v>0.71</v>
       </c>
-      <c r="M16">
+      <c r="N17">
         <v>0.28000000000000003</v>
       </c>
-      <c r="N16">
+      <c r="O17">
         <v>0.06</v>
       </c>
-      <c r="O16">
+      <c r="P17">
         <v>1.04</v>
       </c>
-      <c r="P16">
+      <c r="Q17">
         <v>98.9</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>33</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>42.3</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>11.8</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>11</v>
       </c>
-      <c r="E17">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
         <v>7.36</v>
       </c>
-      <c r="F17">
+      <c r="G18">
         <v>19.350000000000001</v>
       </c>
-      <c r="G17">
+      <c r="H18">
         <v>0.8</v>
       </c>
-      <c r="H17">
+      <c r="I18">
         <v>1.41</v>
       </c>
-      <c r="I17">
+      <c r="J18">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="J17">
+      <c r="K18">
         <v>0.23</v>
       </c>
-      <c r="K17">
+      <c r="L18">
         <v>0.17</v>
       </c>
-      <c r="L17">
+      <c r="M18">
         <v>0.02</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N18" t="s">
         <v>26</v>
       </c>
-      <c r="N17">
+      <c r="O18">
         <v>0.02</v>
       </c>
-      <c r="O17">
+      <c r="P18">
         <v>4.51</v>
       </c>
-      <c r="P17">
+      <c r="Q18">
         <v>99.05</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>34</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>48.1</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>16.2</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>9.36</v>
       </c>
-      <c r="E18">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
         <v>8.89</v>
       </c>
-      <c r="F18">
+      <c r="G19">
         <v>6.56</v>
       </c>
-      <c r="G18">
+      <c r="H19">
         <v>4.33</v>
       </c>
-      <c r="H18">
+      <c r="I19">
         <v>0.35</v>
       </c>
-      <c r="I18">
+      <c r="J19">
         <v>2.3E-2</v>
       </c>
-      <c r="J18">
+      <c r="K19">
         <v>0.88</v>
       </c>
-      <c r="K18">
+      <c r="L19">
         <v>0.13</v>
       </c>
-      <c r="L18">
+      <c r="M19">
         <v>0.26</v>
       </c>
-      <c r="M18">
+      <c r="N19">
         <v>0.05</v>
       </c>
-      <c r="N18">
+      <c r="O19">
         <v>0.01</v>
       </c>
-      <c r="O18">
+      <c r="P19">
         <v>3.37</v>
       </c>
-      <c r="P18">
+      <c r="Q19">
         <v>98.51</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>35</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>63.4</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>14.3</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>4.3499999999999996</v>
       </c>
-      <c r="E19">
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
         <v>3</v>
       </c>
-      <c r="F19">
+      <c r="G20">
         <v>2.5499999999999998</v>
       </c>
-      <c r="G19">
+      <c r="H20">
         <v>5.18</v>
       </c>
-      <c r="H19">
+      <c r="I20">
         <v>1.0900000000000001</v>
       </c>
-      <c r="I19">
+      <c r="J20">
         <v>2E-3</v>
       </c>
-      <c r="J19">
+      <c r="K20">
         <v>0.59</v>
       </c>
-      <c r="K19">
+      <c r="L20">
         <v>0.08</v>
       </c>
-      <c r="L19">
+      <c r="M20">
         <v>0.11</v>
       </c>
-      <c r="M19">
+      <c r="N20">
         <v>0.02</v>
       </c>
-      <c r="N19">
+      <c r="O20">
         <v>0.03</v>
       </c>
-      <c r="O19">
+      <c r="P20">
         <v>3.7</v>
       </c>
-      <c r="P19">
+      <c r="Q20">
         <v>98.4</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>36</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>63.1</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>15.85</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>6.44</v>
       </c>
-      <c r="E20">
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
         <v>0.68</v>
       </c>
-      <c r="F20">
+      <c r="G21">
         <v>3.05</v>
       </c>
-      <c r="G20">
+      <c r="H21">
         <v>3.79</v>
       </c>
-      <c r="H20">
+      <c r="I21">
         <v>2.0099999999999998</v>
       </c>
-      <c r="I20">
+      <c r="J21">
         <v>2.3E-2</v>
       </c>
-      <c r="J20">
+      <c r="K21">
         <v>0.56999999999999995</v>
       </c>
-      <c r="K20">
+      <c r="L21">
         <v>0.06</v>
-      </c>
-      <c r="L20">
-        <v>0.16</v>
-      </c>
-      <c r="M20">
-        <v>0.03</v>
-      </c>
-      <c r="N20">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="O20">
-        <v>2.84</v>
-      </c>
-      <c r="P20">
-        <v>98.67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21">
-        <v>62.9</v>
-      </c>
-      <c r="C21">
-        <v>17.850000000000001</v>
-      </c>
-      <c r="D21">
-        <v>2.77</v>
-      </c>
-      <c r="E21">
-        <v>1.22</v>
-      </c>
-      <c r="F21">
-        <v>0.66</v>
-      </c>
-      <c r="G21">
-        <v>6.29</v>
-      </c>
-      <c r="H21">
-        <v>5.7</v>
-      </c>
-      <c r="I21" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21">
-        <v>0.44</v>
-      </c>
-      <c r="K21">
-        <v>0.05</v>
-      </c>
-      <c r="L21">
-        <v>0.17</v>
       </c>
       <c r="M21">
         <v>0.16</v>
       </c>
       <c r="N21">
+        <v>0.03</v>
+      </c>
+      <c r="O21">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P21">
+        <v>2.84</v>
+      </c>
+      <c r="Q21">
+        <v>98.67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22">
+        <v>62.9</v>
+      </c>
+      <c r="C22">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="D22">
+        <v>2.77</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1.22</v>
+      </c>
+      <c r="G22">
+        <v>0.66</v>
+      </c>
+      <c r="H22">
+        <v>6.29</v>
+      </c>
+      <c r="I22">
+        <v>5.7</v>
+      </c>
+      <c r="J22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22">
+        <v>0.44</v>
+      </c>
+      <c r="L22">
+        <v>0.05</v>
+      </c>
+      <c r="M22">
+        <v>0.17</v>
+      </c>
+      <c r="N22">
         <v>0.16</v>
       </c>
-      <c r="O21">
+      <c r="O22">
+        <v>0.16</v>
+      </c>
+      <c r="P22">
         <v>0.53</v>
       </c>
-      <c r="P21">
+      <c r="Q22">
         <v>98.9</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>38</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>69.599999999999994</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>15.5</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <v>2.33</v>
       </c>
-      <c r="E22">
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
         <v>1.32</v>
       </c>
-      <c r="F22">
+      <c r="G23">
         <v>0.47</v>
       </c>
-      <c r="G22">
+      <c r="H23">
         <v>6.35</v>
       </c>
-      <c r="H22">
+      <c r="I23">
         <v>5</v>
       </c>
-      <c r="I22">
+      <c r="J23">
         <v>2E-3</v>
       </c>
-      <c r="J22">
+      <c r="K23">
         <v>0.31</v>
       </c>
-      <c r="K22">
+      <c r="L23">
         <v>0.05</v>
       </c>
-      <c r="L22">
+      <c r="M23">
         <v>0.12</v>
-      </c>
-      <c r="M22">
-        <v>0.04</v>
-      </c>
-      <c r="N22">
-        <v>0.11</v>
-      </c>
-      <c r="O22">
-        <v>0.34</v>
-      </c>
-      <c r="P22">
-        <v>101.54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23">
-        <v>62.3</v>
-      </c>
-      <c r="C23">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="D23">
-        <v>5.27</v>
-      </c>
-      <c r="E23">
-        <v>5.08</v>
-      </c>
-      <c r="F23">
-        <v>3.6</v>
-      </c>
-      <c r="G23">
-        <v>4.49</v>
-      </c>
-      <c r="H23">
-        <v>0.51</v>
-      </c>
-      <c r="I23">
-        <v>2.3E-2</v>
-      </c>
-      <c r="J23">
-        <v>0.44</v>
-      </c>
-      <c r="K23">
-        <v>0.08</v>
-      </c>
-      <c r="L23">
-        <v>0.11</v>
-      </c>
-      <c r="M23">
-        <v>7.0000000000000007E-2</v>
       </c>
       <c r="N23">
         <v>0.04</v>
       </c>
       <c r="O23">
+        <v>0.11</v>
+      </c>
+      <c r="P23">
+        <v>0.34</v>
+      </c>
+      <c r="Q23">
+        <v>101.54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24">
+        <v>62.3</v>
+      </c>
+      <c r="C24">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="D24">
+        <v>5.27</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>5.08</v>
+      </c>
+      <c r="G24">
+        <v>3.6</v>
+      </c>
+      <c r="H24">
+        <v>4.49</v>
+      </c>
+      <c r="I24">
+        <v>0.51</v>
+      </c>
+      <c r="J24">
+        <v>2.3E-2</v>
+      </c>
+      <c r="K24">
+        <v>0.44</v>
+      </c>
+      <c r="L24">
+        <v>0.08</v>
+      </c>
+      <c r="M24">
+        <v>0.11</v>
+      </c>
+      <c r="N24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O24">
+        <v>0.04</v>
+      </c>
+      <c r="P24">
         <v>2.97</v>
       </c>
-      <c r="P23">
+      <c r="Q24">
         <v>101.58</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>40</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>61.4</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>16.7</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <v>5.26</v>
       </c>
-      <c r="E24">
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
         <v>4.7300000000000004</v>
       </c>
-      <c r="F24">
+      <c r="G25">
         <v>3.66</v>
       </c>
-      <c r="G24">
+      <c r="H25">
         <v>4.46</v>
       </c>
-      <c r="H24">
+      <c r="I25">
         <v>0.62</v>
       </c>
-      <c r="I24">
+      <c r="J25">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J24">
+      <c r="K25">
         <v>0.44</v>
       </c>
-      <c r="K24">
+      <c r="L25">
         <v>0.08</v>
       </c>
-      <c r="L24">
+      <c r="M25">
         <v>0.09</v>
       </c>
-      <c r="M24">
+      <c r="N25">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N24">
+      <c r="O25">
         <v>0.04</v>
       </c>
-      <c r="O24">
+      <c r="P25">
         <v>2.76</v>
       </c>
-      <c r="P24">
+      <c r="Q25">
         <v>100.34</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>41</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>63</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>12.85</v>
       </c>
-      <c r="D25">
+      <c r="D26">
         <v>7.16</v>
       </c>
-      <c r="E25">
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
         <v>6.6</v>
       </c>
-      <c r="F25">
+      <c r="G26">
         <v>3.16</v>
       </c>
-      <c r="G25">
+      <c r="H26">
         <v>2.12</v>
       </c>
-      <c r="H25">
+      <c r="I26">
         <v>1.32</v>
       </c>
-      <c r="I25">
+      <c r="J26">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J25">
+      <c r="K26">
         <v>0.54</v>
       </c>
-      <c r="K25">
+      <c r="L26">
         <v>0.19</v>
       </c>
-      <c r="L25">
+      <c r="M26">
         <v>0.13</v>
       </c>
-      <c r="M25">
+      <c r="N26">
         <v>0.03</v>
       </c>
-      <c r="N25">
+      <c r="O26">
         <v>0.03</v>
       </c>
-      <c r="O25">
+      <c r="P26">
         <v>1.28</v>
       </c>
-      <c r="P25">
+      <c r="Q26">
         <v>98.44</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>42</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>76.2</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>13.2</v>
       </c>
-      <c r="D26">
+      <c r="D27">
         <v>1.03</v>
       </c>
-      <c r="E26">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
         <v>0.43</v>
       </c>
-      <c r="F26">
+      <c r="G27">
         <v>0.13</v>
       </c>
-      <c r="G26">
+      <c r="H27">
         <v>6.73</v>
       </c>
-      <c r="H26">
+      <c r="I27">
         <v>0.96</v>
       </c>
-      <c r="I26">
+      <c r="J27">
         <v>2E-3</v>
       </c>
-      <c r="J26">
+      <c r="K27">
         <v>0.06</v>
       </c>
-      <c r="K26">
+      <c r="L27">
         <v>0.01</v>
       </c>
-      <c r="L26">
+      <c r="M27">
         <v>0.01</v>
       </c>
-      <c r="M26">
+      <c r="N27">
         <v>0.02</v>
       </c>
-      <c r="N26">
+      <c r="O27">
         <v>0.01</v>
       </c>
-      <c r="O26">
+      <c r="P27">
         <v>0.38</v>
       </c>
-      <c r="P26">
+      <c r="Q27">
         <v>99.17</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>43</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>66.5</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>15</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <v>3.29</v>
       </c>
-      <c r="E27">
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
         <v>2.02</v>
       </c>
-      <c r="F27">
+      <c r="G28">
         <v>1.18</v>
       </c>
-      <c r="G27">
+      <c r="H28">
         <v>4.67</v>
       </c>
-      <c r="H27">
+      <c r="I28">
         <v>4.1100000000000003</v>
       </c>
-      <c r="I27">
+      <c r="J28">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="J27">
+      <c r="K28">
         <v>0.4</v>
       </c>
-      <c r="K27">
+      <c r="L28">
         <v>0.05</v>
       </c>
-      <c r="L27">
+      <c r="M28">
         <v>0.15</v>
       </c>
-      <c r="M27">
+      <c r="N28">
         <v>0.05</v>
       </c>
-      <c r="N27">
+      <c r="O28">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="O27">
+      <c r="P28">
         <v>0.59</v>
       </c>
-      <c r="P27">
+      <c r="Q28">
         <v>98.09</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>44</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>70.8</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>15.7</v>
       </c>
-      <c r="D28">
+      <c r="D29">
         <v>6.21</v>
       </c>
-      <c r="E28">
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F28">
+      <c r="G29">
         <v>2.31</v>
-      </c>
-      <c r="G28">
-        <v>0.02</v>
-      </c>
-      <c r="H28">
-        <v>1.22</v>
-      </c>
-      <c r="I28">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="J28">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="K28">
-        <v>0.03</v>
-      </c>
-      <c r="L28">
-        <v>0.31</v>
-      </c>
-      <c r="M28" t="s">
-        <v>26</v>
-      </c>
-      <c r="N28">
-        <v>0.04</v>
-      </c>
-      <c r="O28">
-        <v>2.54</v>
-      </c>
-      <c r="P28">
-        <v>100.9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29">
-        <v>55.8</v>
-      </c>
-      <c r="C29">
-        <v>12.05</v>
-      </c>
-      <c r="D29">
-        <v>23.5</v>
-      </c>
-      <c r="E29">
-        <v>0.93</v>
-      </c>
-      <c r="F29">
-        <v>4.2</v>
-      </c>
-      <c r="G29">
-        <v>0.04</v>
       </c>
       <c r="H29">
         <v>0.02</v>
       </c>
       <c r="I29">
-        <v>8.9999999999999993E-3</v>
+        <v>1.22</v>
       </c>
       <c r="J29">
-        <v>0.49</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="K29">
-        <v>0.25</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="L29">
-        <v>0.16</v>
-      </c>
-      <c r="M29" t="s">
-        <v>26</v>
+        <v>0.03</v>
+      </c>
+      <c r="M29">
+        <v>0.31</v>
       </c>
       <c r="N29" t="s">
         <v>26</v>
       </c>
       <c r="O29">
+        <v>0.04</v>
+      </c>
+      <c r="P29">
+        <v>2.54</v>
+      </c>
+      <c r="Q29">
+        <v>100.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30">
+        <v>55.8</v>
+      </c>
+      <c r="C30">
+        <v>12.05</v>
+      </c>
+      <c r="D30">
+        <v>23.5</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0.93</v>
+      </c>
+      <c r="G30">
+        <v>4.2</v>
+      </c>
+      <c r="H30">
+        <v>0.04</v>
+      </c>
+      <c r="I30">
+        <v>0.02</v>
+      </c>
+      <c r="J30">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="K30">
+        <v>0.49</v>
+      </c>
+      <c r="L30">
+        <v>0.25</v>
+      </c>
+      <c r="M30">
+        <v>0.16</v>
+      </c>
+      <c r="N30" t="s">
+        <v>26</v>
+      </c>
+      <c r="O30" t="s">
+        <v>26</v>
+      </c>
+      <c r="P30">
         <v>2.6</v>
       </c>
-      <c r="P29">
+      <c r="Q30">
         <v>100.05</v>
       </c>
     </row>
